--- a/public/templates/template-checksheet-shower.xlsx
+++ b/public/templates/template-checksheet-shower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_DATA\itd.magang01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA73149-D2F2-4EE9-855E-CC3A2376A7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5E7D3-4540-4D3D-BC79-5AEB91B8E657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,22 @@
     <sheet name="TPS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TPS!$B$2:$R$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TPS!$B$6:$R$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">TAHUN :             </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+  <si>
+    <t>No . Reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>NO.FORM: FRM-MS-S15-081-00</t>
@@ -46,6 +52,9 @@
     <t>BULAN</t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>Instalation Base</t>
   </si>
   <si>
@@ -98,6 +107,9 @@
   </si>
   <si>
     <t>Paraf SPV</t>
+  </si>
+  <si>
+    <t>Plant</t>
   </si>
 </sst>
 </file>
@@ -167,11 +179,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
@@ -180,7 +192,7 @@
     <border>
       <left/>
       <right/>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
@@ -191,7 +203,7 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -202,7 +214,7 @@
     <border>
       <left/>
       <right/>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -211,11 +223,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="double">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -224,7 +238,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -268,8 +291,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="double">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -285,7 +310,9 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -294,7 +321,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -325,7 +354,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -334,9 +376,20 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -352,32 +405,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -524,21 +551,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="double">
         <color rgb="FF000000"/>
       </right>
@@ -554,138 +566,168 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -696,46 +738,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,13 +788,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -805,21 +832,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2362200</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 20">
+        <xdr:cNvPr id="3" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,15 +875,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>847725</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2124075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -880,7 +907,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1743075" cy="476250"/>
+          <a:ext cx="1743075" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -891,23 +918,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350288</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>333542</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>445075</xdr:rowOff>
+      <xdr:colOff>360755</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C70093-D100-3291-2FC6-B702D6F7DD6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1626F1E-3607-79DD-F6C1-B5684BA7D21D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,8 +956,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10613572" y="244929"/>
-          <a:ext cx="1190791" cy="866896"/>
+          <a:off x="9875288" y="272143"/>
+          <a:ext cx="1439217" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -942,22 +969,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1428748</xdr:colOff>
+      <xdr:colOff>1251855</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>40823</xdr:rowOff>
+      <xdr:rowOff>122463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>191330</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>449037</xdr:rowOff>
+      <xdr:colOff>472087</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3305875D-F4B2-F66A-2662-A5CF607CC335}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB32372-201B-C5F2-3D99-F67D1D359344}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -979,8 +1006,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5143498" y="244930"/>
-          <a:ext cx="3661153" cy="870857"/>
+          <a:off x="4449534" y="312963"/>
+          <a:ext cx="4118803" cy="979715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1316,14 +1343,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q39"/>
+  <dimension ref="B2:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:Q3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
@@ -1332,362 +1360,376 @@
     <col min="18" max="18" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="50" t="s">
+    <row r="2" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="52"/>
-    </row>
-    <row r="3" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="55"/>
-    </row>
-    <row r="4" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+    </row>
+    <row r="3" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="63"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+    </row>
+    <row r="4" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
+      <c r="N4" s="63"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="N5" s="66"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+    </row>
+    <row r="6" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="2:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="C7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="D7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="62"/>
-    </row>
-    <row r="6" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="59"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="3">
+      <c r="E7" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+    </row>
+    <row r="8" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="50"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G8" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H8" s="4">
         <v>3</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I8" s="4">
         <v>4</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K8" s="4">
         <v>6</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L8" s="4">
         <v>7</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M8" s="4">
         <v>8</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N8" s="4">
         <v>9</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O8" s="4">
         <v>10</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P8" s="4">
         <v>11</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q8" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
-      <c r="C7" s="29">
+    <row r="9" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="30">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="33"/>
-    </row>
-    <row r="8" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="34"/>
-    </row>
-    <row r="9" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="38"/>
-    </row>
-    <row r="10" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="29">
+      <c r="D9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="34"/>
+    </row>
+    <row r="10" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="45"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="35"/>
+    </row>
+    <row r="11" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="39"/>
+    </row>
+    <row r="12" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="45"/>
+      <c r="C12" s="30">
         <v>2</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="34"/>
+    </row>
+    <row r="13" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="45"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="33"/>
-    </row>
-    <row r="11" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="34"/>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="38"/>
-    </row>
-    <row r="13" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
-      <c r="C13" s="29">
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="35"/>
+    </row>
+    <row r="14" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="45"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="39"/>
+    </row>
+    <row r="15" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="45"/>
+      <c r="C15" s="30">
         <v>3</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="33"/>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="34"/>
-    </row>
-    <row r="15" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="44"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="38"/>
-    </row>
-    <row r="16" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="29">
+      <c r="D15" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="34"/>
+    </row>
+    <row r="16" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="45"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="35"/>
+    </row>
+    <row r="17" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="45"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="39"/>
+    </row>
+    <row r="18" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="45"/>
+      <c r="C18" s="30">
         <v>4</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="33"/>
-    </row>
-    <row r="17" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="44"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="34"/>
-    </row>
-    <row r="18" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="19"/>
+      <c r="D18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="40"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
@@ -1703,93 +1745,91 @@
     </row>
     <row r="19" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="45"/>
-      <c r="C19" s="35">
-        <v>5</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="32"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="35"/>
     </row>
     <row r="20" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="45"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="35"/>
     </row>
     <row r="21" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="21"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="36">
+        <v>5</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="29">
-        <v>6</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="21"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="31"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -1804,433 +1844,485 @@
       <c r="Q23" s="22"/>
     </row>
     <row r="24" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="23"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="30">
+        <v>6</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="29">
+      <c r="B25" s="46"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="23"/>
+    </row>
+    <row r="26" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="46"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="24"/>
+    </row>
+    <row r="27" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="46"/>
+      <c r="C27" s="30">
         <v>7</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="21"/>
-    </row>
-    <row r="26" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="45"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="22"/>
-    </row>
-    <row r="27" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="23"/>
+      <c r="D27" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="22"/>
     </row>
     <row r="28" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-      <c r="C28" s="26">
+      <c r="B28" s="46"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="23"/>
+    </row>
+    <row r="29" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="46"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="24"/>
+    </row>
+    <row r="30" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="46"/>
+      <c r="C30" s="27">
         <v>8</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="21"/>
-    </row>
-    <row r="29" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="22"/>
-    </row>
-    <row r="30" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="23"/>
-    </row>
-    <row r="31" spans="2:17" s="8" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="7"/>
-    </row>
-    <row r="32" spans="2:17" s="8" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
+      <c r="D30" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="11"/>
-    </row>
-    <row r="33" spans="2:17" s="8" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="E30" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="14"/>
-    </row>
-    <row r="35" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="14"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="22"/>
+    </row>
+    <row r="31" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="46"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="23"/>
+    </row>
+    <row r="32" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="46"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="24"/>
+    </row>
+    <row r="33" spans="2:17" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="8"/>
+    </row>
+    <row r="34" spans="2:17" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="12"/>
+    </row>
+    <row r="35" spans="2:17" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="15"/>
     </row>
     <row r="37" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="15"/>
     </row>
     <row r="38" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="17"/>
-    </row>
-    <row r="39" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="15"/>
+    </row>
+    <row r="39" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="15"/>
+    </row>
+    <row r="40" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="18"/>
+    </row>
+    <row r="41" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="137">
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:Q5"/>
-    <mergeCell ref="B7:B30"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M25:M27"/>
+  <mergeCells count="143">
+    <mergeCell ref="B2:L5"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="B9:B32"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:Q35"/>
+    <mergeCell ref="B36:Q40"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="Q30:Q32"/>
     <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:Q33"/>
-    <mergeCell ref="B34:Q38"/>
-    <mergeCell ref="O28:O30"/>
-    <mergeCell ref="P28:P30"/>
-    <mergeCell ref="Q28:Q30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="N30:N32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
